--- a/Excel Files/Bus Planning.xlsx
+++ b/Excel Files/Bus Planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/872575_fontys_nl/Documents/Documenten/Python/PJ5 Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_0399E22E9067360E62355476585DCE3A87431D38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{667196BA-76E5-4A59-9AAC-90106DEFBAE3}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0399E22E9067360E62355476585DCE3A87431D38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE366500-D517-4BCD-A4AF-9BBB621D2634}"/>
   <bookViews>
     <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,23 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$721</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2013,7 +1997,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2375,18 +2359,9 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2412,7 +2387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2435,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2461,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2484,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2510,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2533,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2559,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2582,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2608,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2631,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2657,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2680,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2706,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2729,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2755,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2778,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2804,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2827,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2853,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2876,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2902,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2925,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2951,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2974,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3000,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -3023,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3049,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3072,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3098,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3121,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3144,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3167,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3193,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3216,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3242,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3268,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3291,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3314,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3340,7 +3315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3363,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -3389,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3412,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3438,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -3461,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3487,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -3510,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3536,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -3559,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3585,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -3608,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3631,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3654,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3680,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -3703,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3729,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3752,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3778,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -3801,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -3827,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3850,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3876,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -3902,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3925,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3948,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3971,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -3997,7 +3972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -4020,7 +3995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -4046,7 +4021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -4072,7 +4047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -4095,7 +4070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -4118,7 +4093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -4144,7 +4119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -4167,7 +4142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -4193,7 +4168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -4216,7 +4191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -4242,7 +4217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -4265,7 +4240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -4291,7 +4266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -4314,7 +4289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -4340,7 +4315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -4363,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -4389,7 +4364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4412,7 +4387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -4438,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -4461,7 +4436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -4487,7 +4462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -4510,7 +4485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -4536,7 +4511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -4559,7 +4534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -4585,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -4608,7 +4583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -4634,7 +4609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4657,7 +4632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -4680,7 +4655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -4703,7 +4678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -4729,7 +4704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4752,7 +4727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -4778,7 +4753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4804,7 +4779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4827,7 +4802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -4850,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -4876,7 +4851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4899,7 +4874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -4925,7 +4900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -4948,7 +4923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -4974,7 +4949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -4997,7 +4972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -5023,7 +4998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -5046,7 +5021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -5072,7 +5047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -5095,7 +5070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -5121,7 +5096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -5144,7 +5119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -5170,7 +5145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -5193,7 +5168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -5216,7 +5191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -5239,7 +5214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -5265,7 +5240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -5288,7 +5263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -5314,7 +5289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -5337,7 +5312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -5363,7 +5338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -5386,7 +5361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -5412,7 +5387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -5435,7 +5410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -5461,7 +5436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -5484,7 +5459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -5507,7 +5482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -5533,7 +5508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -5556,7 +5531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -5582,7 +5557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -5605,7 +5580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -5631,7 +5606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -5654,7 +5629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -5680,7 +5655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -5703,7 +5678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -5729,7 +5704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -5752,7 +5727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -5778,7 +5753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -5801,7 +5776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -5827,7 +5802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -5850,7 +5825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -5876,7 +5851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -5899,7 +5874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -5925,7 +5900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -5948,7 +5923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -5974,7 +5949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -5997,7 +5972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -6023,7 +5998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -6046,7 +6021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -6072,7 +6047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -6095,7 +6070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -6121,7 +6096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -6144,7 +6119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -6170,7 +6145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -6193,7 +6168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -6216,7 +6191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -6239,7 +6214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -6265,7 +6240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -6288,7 +6263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -6314,7 +6289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -6340,7 +6315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -6363,7 +6338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -6386,7 +6361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -6412,7 +6387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -6435,7 +6410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -6461,7 +6436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -6484,7 +6459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -6510,7 +6485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -6533,7 +6508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -6559,7 +6534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -6582,7 +6557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -6608,7 +6583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -6634,7 +6609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -6657,7 +6632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -6680,7 +6655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -6706,7 +6681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -6729,7 +6704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -6752,7 +6727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -6775,7 +6750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -6801,7 +6776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -6824,7 +6799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -6847,7 +6822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -6873,7 +6848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -6896,7 +6871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -6922,7 +6897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -6945,7 +6920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -6971,7 +6946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -6994,7 +6969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -7020,7 +6995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -7043,7 +7018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -7069,7 +7044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -7092,7 +7067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -7118,7 +7093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -7141,7 +7116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -7167,7 +7142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -7190,7 +7165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -7216,7 +7191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -7239,7 +7214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -7265,7 +7240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -7288,7 +7263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -7314,7 +7289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -7337,7 +7312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -7363,7 +7338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -7386,7 +7361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -7412,7 +7387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>9</v>
       </c>
@@ -7435,7 +7410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -7461,7 +7436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -7484,7 +7459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -7510,7 +7485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -7533,7 +7508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -7556,7 +7531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -7579,7 +7554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -7605,7 +7580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -7628,7 +7603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -7654,7 +7629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -7677,7 +7652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -7703,7 +7678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -7726,7 +7701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -7752,7 +7727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -7775,7 +7750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -7801,7 +7776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -7824,7 +7799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -7847,7 +7822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -7870,7 +7845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -7896,7 +7871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -7919,7 +7894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -7942,7 +7917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -7968,7 +7943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -7991,7 +7966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -8017,7 +7992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -8040,7 +8015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -8066,7 +8041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -8089,7 +8064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -8115,7 +8090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -8138,7 +8113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -8164,7 +8139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -8187,7 +8162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -8213,7 +8188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>9</v>
       </c>
@@ -8236,7 +8211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -8262,7 +8237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -8285,7 +8260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -8311,7 +8286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -8334,7 +8309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -8360,7 +8335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -8383,7 +8358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -8409,7 +8384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -8432,7 +8407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -8458,7 +8433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -8481,7 +8456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -8507,7 +8482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>13</v>
       </c>
@@ -8530,7 +8505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -8556,7 +8531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -8579,7 +8554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -8605,7 +8580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -8628,7 +8603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>13</v>
       </c>
@@ -8654,7 +8629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -8677,7 +8652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -8700,7 +8675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -8723,7 +8698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -8749,7 +8724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -8772,7 +8747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>13</v>
       </c>
@@ -8798,7 +8773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>9</v>
       </c>
@@ -8821,7 +8796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -8847,7 +8822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -8870,7 +8845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -8896,7 +8871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -8919,7 +8894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>13</v>
       </c>
@@ -8945,7 +8920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>9</v>
       </c>
@@ -8968,7 +8943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -8991,7 +8966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -9017,7 +8992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>13</v>
       </c>
@@ -9040,7 +9015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>13</v>
       </c>
@@ -9066,7 +9041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -9089,7 +9064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -9115,7 +9090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>9</v>
       </c>
@@ -9138,7 +9113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -9164,7 +9139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -9187,7 +9162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -9213,7 +9188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -9236,7 +9211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -9262,7 +9237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -9285,7 +9260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -9311,7 +9286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -9334,7 +9309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>13</v>
       </c>
@@ -9360,7 +9335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>9</v>
       </c>
@@ -9383,7 +9358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -9409,7 +9384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -9432,7 +9407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>13</v>
       </c>
@@ -9458,7 +9433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -9481,7 +9456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>13</v>
       </c>
@@ -9507,7 +9482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -9530,7 +9505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -9553,7 +9528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -9576,7 +9551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>13</v>
       </c>
@@ -9602,7 +9577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -9625,7 +9600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>9</v>
       </c>
@@ -9651,7 +9626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>13</v>
       </c>
@@ -9674,7 +9649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -9700,7 +9675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>9</v>
       </c>
@@ -9723,7 +9698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -9749,7 +9724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -9772,7 +9747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>13</v>
       </c>
@@ -9798,7 +9773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -9821,7 +9796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -9847,7 +9822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -9870,7 +9845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -9896,7 +9871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>13</v>
       </c>
@@ -9919,7 +9894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -9945,7 +9920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -9968,7 +9943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>8</v>
       </c>
@@ -9991,7 +9966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -10017,7 +9992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>13</v>
       </c>
@@ -10040,7 +10015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>13</v>
       </c>
@@ -10066,7 +10041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>9</v>
       </c>
@@ -10089,7 +10064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>13</v>
       </c>
@@ -10115,7 +10090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>9</v>
       </c>
@@ -10138,7 +10113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>13</v>
       </c>
@@ -10164,7 +10139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -10187,7 +10162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>13</v>
       </c>
@@ -10213,7 +10188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>9</v>
       </c>
@@ -10236,7 +10211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>13</v>
       </c>
@@ -10262,7 +10237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>9</v>
       </c>
@@ -10285,7 +10260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>13</v>
       </c>
@@ -10311,7 +10286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>9</v>
       </c>
@@ -10334,7 +10309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>13</v>
       </c>
@@ -10360,7 +10335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -10383,7 +10358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>13</v>
       </c>
@@ -10409,7 +10384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>9</v>
       </c>
@@ -10432,7 +10407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>13</v>
       </c>
@@ -10458,7 +10433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -10481,7 +10456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>13</v>
       </c>
@@ -10507,7 +10482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -10530,7 +10505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>8</v>
       </c>
@@ -10553,7 +10528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>8</v>
       </c>
@@ -10576,7 +10551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>13</v>
       </c>
@@ -10602,7 +10577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>9</v>
       </c>
@@ -10628,7 +10603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -10651,7 +10626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>13</v>
       </c>
@@ -10674,7 +10649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>13</v>
       </c>
@@ -10700,7 +10675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -10723,7 +10698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>13</v>
       </c>
@@ -10749,7 +10724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -10772,7 +10747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>13</v>
       </c>
@@ -10798,7 +10773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -10821,7 +10796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>13</v>
       </c>
@@ -10847,7 +10822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -10870,7 +10845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -10896,7 +10871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>13</v>
       </c>
@@ -10919,7 +10894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>13</v>
       </c>
@@ -10945,7 +10920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -10968,7 +10943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>8</v>
       </c>
@@ -10991,7 +10966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -11017,7 +10992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>13</v>
       </c>
@@ -11040,7 +11015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>13</v>
       </c>
@@ -11066,7 +11041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>9</v>
       </c>
@@ -11089,7 +11064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>13</v>
       </c>
@@ -11115,7 +11090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -11138,7 +11113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>13</v>
       </c>
@@ -11164,7 +11139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>9</v>
       </c>
@@ -11187,7 +11162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>13</v>
       </c>
@@ -11213,7 +11188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>9</v>
       </c>
@@ -11236,7 +11211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -11262,7 +11237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>9</v>
       </c>
@@ -11285,7 +11260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>13</v>
       </c>
@@ -11311,7 +11286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>9</v>
       </c>
@@ -11334,7 +11309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>13</v>
       </c>
@@ -11360,7 +11335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -11383,7 +11358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -11409,7 +11384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -11432,7 +11407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>13</v>
       </c>
@@ -11458,7 +11433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>9</v>
       </c>
@@ -11481,7 +11456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>13</v>
       </c>
@@ -11507,7 +11482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -11530,7 +11505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>8</v>
       </c>
@@ -11553,7 +11528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>8</v>
       </c>
@@ -11576,7 +11551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -11602,7 +11577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>13</v>
       </c>
@@ -11625,7 +11600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>13</v>
       </c>
@@ -11651,7 +11626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -11674,7 +11649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -11700,7 +11675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -11723,7 +11698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>13</v>
       </c>
@@ -11749,7 +11724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>9</v>
       </c>
@@ -11772,7 +11747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>13</v>
       </c>
@@ -11798,7 +11773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>9</v>
       </c>
@@ -11821,7 +11796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>9</v>
       </c>
@@ -11847,7 +11822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>13</v>
       </c>
@@ -11870,7 +11845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>13</v>
       </c>
@@ -11896,7 +11871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>9</v>
       </c>
@@ -11919,7 +11894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>9</v>
       </c>
@@ -11945,7 +11920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>13</v>
       </c>
@@ -11968,7 +11943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -11991,7 +11966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -12017,7 +11992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>13</v>
       </c>
@@ -12040,7 +12015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>13</v>
       </c>
@@ -12066,7 +12041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -12089,7 +12064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>9</v>
       </c>
@@ -12115,7 +12090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>13</v>
       </c>
@@ -12138,7 +12113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>13</v>
       </c>
@@ -12164,7 +12139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>9</v>
       </c>
@@ -12187,7 +12162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>9</v>
       </c>
@@ -12213,7 +12188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>13</v>
       </c>
@@ -12236,7 +12211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>13</v>
       </c>
@@ -12262,7 +12237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>9</v>
       </c>
@@ -12285,7 +12260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>9</v>
       </c>
@@ -12311,7 +12286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>13</v>
       </c>
@@ -12334,7 +12309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>13</v>
       </c>
@@ -12360,7 +12335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>9</v>
       </c>
@@ -12383,7 +12358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>9</v>
       </c>
@@ -12409,7 +12384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>13</v>
       </c>
@@ -12432,7 +12407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>13</v>
       </c>
@@ -12458,7 +12433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>9</v>
       </c>
@@ -12481,7 +12456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -12507,7 +12482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>13</v>
       </c>
@@ -12530,7 +12505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>13</v>
       </c>
@@ -12556,7 +12531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>9</v>
       </c>
@@ -12579,7 +12554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -12605,7 +12580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>13</v>
       </c>
@@ -12628,7 +12603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>13</v>
       </c>
@@ -12654,7 +12629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>9</v>
       </c>
@@ -12680,7 +12655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>9</v>
       </c>
@@ -12703,7 +12678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>13</v>
       </c>
@@ -12726,7 +12701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>13</v>
       </c>
@@ -12752,7 +12727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -12775,7 +12750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -12801,7 +12776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -12824,7 +12799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>13</v>
       </c>
@@ -12850,7 +12825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -12873,7 +12848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>8</v>
       </c>
@@ -12896,7 +12871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>8</v>
       </c>
@@ -12919,7 +12894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -12945,7 +12920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>9</v>
       </c>
@@ -12968,7 +12943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -12994,7 +12969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>13</v>
       </c>
@@ -13017,7 +12992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -13043,7 +13018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -13066,7 +13041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>9</v>
       </c>
@@ -13092,7 +13067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -13115,7 +13090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>8</v>
       </c>
@@ -13138,7 +13113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -13164,7 +13139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -13187,7 +13162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>13</v>
       </c>
@@ -13213,7 +13188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -13236,7 +13211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -13262,7 +13237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>13</v>
       </c>
@@ -13285,7 +13260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>13</v>
       </c>
@@ -13311,7 +13286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>9</v>
       </c>
@@ -13334,7 +13309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -13360,7 +13335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>13</v>
       </c>
@@ -13383,7 +13358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>13</v>
       </c>
@@ -13409,7 +13384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>9</v>
       </c>
@@ -13432,7 +13407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>9</v>
       </c>
@@ -13458,7 +13433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>13</v>
       </c>
@@ -13481,7 +13456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>13</v>
       </c>
@@ -13507,7 +13482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -13530,7 +13505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>9</v>
       </c>
@@ -13556,7 +13531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>13</v>
       </c>
@@ -13579,7 +13554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>13</v>
       </c>
@@ -13605,7 +13580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>9</v>
       </c>
@@ -13628,7 +13603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>9</v>
       </c>
@@ -13654,7 +13629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>13</v>
       </c>
@@ -13677,7 +13652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>13</v>
       </c>
@@ -13703,7 +13678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>9</v>
       </c>
@@ -13729,7 +13704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -13752,7 +13727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>13</v>
       </c>
@@ -13775,7 +13750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -13801,7 +13776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>9</v>
       </c>
@@ -13824,7 +13799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>13</v>
       </c>
@@ -13850,7 +13825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>9</v>
       </c>
@@ -13873,7 +13848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>9</v>
       </c>
@@ -13899,7 +13874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>13</v>
       </c>
@@ -13922,7 +13897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>13</v>
       </c>
@@ -13948,7 +13923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>9</v>
       </c>
@@ -13971,7 +13946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>9</v>
       </c>
@@ -13997,7 +13972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>13</v>
       </c>
@@ -14020,7 +13995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>13</v>
       </c>
@@ -14046,7 +14021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>9</v>
       </c>
@@ -14069,7 +14044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>8</v>
       </c>
@@ -14092,7 +14067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>8</v>
       </c>
@@ -14115,7 +14090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>9</v>
       </c>
@@ -14141,7 +14116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>13</v>
       </c>
@@ -14164,7 +14139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>9</v>
       </c>
@@ -14190,7 +14165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>13</v>
       </c>
@@ -14213,7 +14188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>8</v>
       </c>
@@ -14236,7 +14211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>9</v>
       </c>
@@ -14262,7 +14237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>13</v>
       </c>
@@ -14285,7 +14260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>9</v>
       </c>
@@ -14311,7 +14286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>13</v>
       </c>
@@ -14334,7 +14309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>9</v>
       </c>
@@ -14360,7 +14335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>13</v>
       </c>
@@ -14383,7 +14358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>9</v>
       </c>
@@ -14409,7 +14384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>13</v>
       </c>
@@ -14432,7 +14407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>9</v>
       </c>
@@ -14458,7 +14433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>13</v>
       </c>
@@ -14481,7 +14456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -14507,7 +14482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>13</v>
       </c>
@@ -14530,7 +14505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>9</v>
       </c>
@@ -14556,7 +14531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>13</v>
       </c>
@@ -14579,7 +14554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>9</v>
       </c>
@@ -14605,7 +14580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>13</v>
       </c>
@@ -14628,7 +14603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>13</v>
       </c>
@@ -14654,7 +14629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -14677,7 +14652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -14703,7 +14678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>13</v>
       </c>
@@ -14726,7 +14701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>13</v>
       </c>
@@ -14752,7 +14727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>9</v>
       </c>
@@ -14775,7 +14750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>9</v>
       </c>
@@ -14801,7 +14776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>13</v>
       </c>
@@ -14824,7 +14799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -14850,7 +14825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>9</v>
       </c>
@@ -14873,7 +14848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>8</v>
       </c>
@@ -14896,7 +14871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>8</v>
       </c>
@@ -14919,7 +14894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -14945,7 +14920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>13</v>
       </c>
@@ -14968,7 +14943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>13</v>
       </c>
@@ -14994,7 +14969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>9</v>
       </c>
@@ -15017,7 +14992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>9</v>
       </c>
@@ -15043,7 +15018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>13</v>
       </c>
@@ -15066,7 +15041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>8</v>
       </c>
@@ -15089,7 +15064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>9</v>
       </c>
@@ -15115,7 +15090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>13</v>
       </c>
@@ -15138,7 +15113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>9</v>
       </c>
@@ -15164,7 +15139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>13</v>
       </c>
@@ -15187,7 +15162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>9</v>
       </c>
@@ -15213,7 +15188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>13</v>
       </c>
@@ -15236,7 +15211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>9</v>
       </c>
@@ -15262,7 +15237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>13</v>
       </c>
@@ -15285,7 +15260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>9</v>
       </c>
@@ -15311,7 +15286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>13</v>
       </c>
@@ -15334,7 +15309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>9</v>
       </c>
@@ -15360,7 +15335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>13</v>
       </c>
@@ -15383,7 +15358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>9</v>
       </c>
@@ -15409,7 +15384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>13</v>
       </c>
@@ -15432,7 +15407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>9</v>
       </c>
@@ -15458,7 +15433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>13</v>
       </c>
@@ -15481,7 +15456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>13</v>
       </c>
@@ -15507,7 +15482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>9</v>
       </c>
@@ -15530,7 +15505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>9</v>
       </c>
@@ -15556,7 +15531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>13</v>
       </c>
@@ -15579,7 +15554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>9</v>
       </c>
@@ -15605,7 +15580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>13</v>
       </c>
@@ -15628,7 +15603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>13</v>
       </c>
@@ -15654,7 +15629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -15677,7 +15652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>9</v>
       </c>
@@ -15703,7 +15678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>13</v>
       </c>
@@ -15726,7 +15701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>8</v>
       </c>
@@ -15749,7 +15724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>8</v>
       </c>
@@ -15772,7 +15747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>9</v>
       </c>
@@ -15798,7 +15773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>13</v>
       </c>
@@ -15821,7 +15796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>8</v>
       </c>
@@ -15844,7 +15819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>9</v>
       </c>
@@ -15870,7 +15845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>13</v>
       </c>
@@ -15893,7 +15868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>9</v>
       </c>
@@ -15919,7 +15894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>13</v>
       </c>
@@ -15942,7 +15917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -15968,7 +15943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>13</v>
       </c>
@@ -15991,7 +15966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>9</v>
       </c>
@@ -16017,7 +15992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>13</v>
       </c>
@@ -16040,7 +16015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>9</v>
       </c>
@@ -16066,7 +16041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>13</v>
       </c>
@@ -16089,7 +16064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>9</v>
       </c>
@@ -16115,7 +16090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>13</v>
       </c>
@@ -16138,7 +16113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>9</v>
       </c>
@@ -16164,7 +16139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>13</v>
       </c>
@@ -16187,7 +16162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>9</v>
       </c>
@@ -16213,7 +16188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>13</v>
       </c>
@@ -16236,7 +16211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>8</v>
       </c>
@@ -16259,7 +16234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>8</v>
       </c>
@@ -16282,7 +16257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>9</v>
       </c>
@@ -16308,7 +16283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>13</v>
       </c>
@@ -16331,7 +16306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>9</v>
       </c>
@@ -16357,7 +16332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>13</v>
       </c>
@@ -16380,7 +16355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>9</v>
       </c>
@@ -16406,7 +16381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>13</v>
       </c>
@@ -16429,7 +16404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>9</v>
       </c>
@@ -16455,7 +16430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>13</v>
       </c>
@@ -16478,7 +16453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>8</v>
       </c>
@@ -16501,7 +16476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>9</v>
       </c>
@@ -16527,7 +16502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>13</v>
       </c>
@@ -16550,7 +16525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>9</v>
       </c>
@@ -16576,7 +16551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>13</v>
       </c>
@@ -16599,7 +16574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>9</v>
       </c>
@@ -16625,7 +16600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>13</v>
       </c>
@@ -16648,7 +16623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>9</v>
       </c>
@@ -16674,7 +16649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>13</v>
       </c>
@@ -16697,7 +16672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>9</v>
       </c>
@@ -16723,7 +16698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>13</v>
       </c>
@@ -16746,7 +16721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>9</v>
       </c>
@@ -16772,7 +16747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>13</v>
       </c>
@@ -16795,7 +16770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>9</v>
       </c>
@@ -16821,7 +16796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>13</v>
       </c>
@@ -16844,7 +16819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>9</v>
       </c>
@@ -16870,7 +16845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>13</v>
       </c>
@@ -16893,7 +16868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>9</v>
       </c>
@@ -16919,7 +16894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>13</v>
       </c>
@@ -16942,7 +16917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>8</v>
       </c>
@@ -16965,7 +16940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>8</v>
       </c>
@@ -16988,7 +16963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>9</v>
       </c>
@@ -17014,7 +16989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>13</v>
       </c>
@@ -17037,7 +17012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>9</v>
       </c>
@@ -17063,7 +17038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>13</v>
       </c>
@@ -17086,7 +17061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>8</v>
       </c>
@@ -17109,7 +17084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>9</v>
       </c>
@@ -17135,7 +17110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>13</v>
       </c>
@@ -17158,7 +17133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>9</v>
       </c>
@@ -17184,7 +17159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>13</v>
       </c>
@@ -17207,7 +17182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>9</v>
       </c>
@@ -17233,7 +17208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>13</v>
       </c>
@@ -17256,7 +17231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>9</v>
       </c>
@@ -17282,7 +17257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>13</v>
       </c>
@@ -17305,7 +17280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>9</v>
       </c>
@@ -17331,7 +17306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>13</v>
       </c>
@@ -17354,7 +17329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>9</v>
       </c>
@@ -17380,7 +17355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>13</v>
       </c>
@@ -17403,7 +17378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>9</v>
       </c>
@@ -17429,7 +17404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>13</v>
       </c>
@@ -17452,7 +17427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>9</v>
       </c>
@@ -17478,7 +17453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>13</v>
       </c>
@@ -17501,7 +17476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>8</v>
       </c>
@@ -17524,7 +17499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>8</v>
       </c>
@@ -17547,7 +17522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>9</v>
       </c>
@@ -17573,7 +17548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>13</v>
       </c>
@@ -17596,7 +17571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>9</v>
       </c>
@@ -17622,7 +17597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>13</v>
       </c>
@@ -17645,7 +17620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>9</v>
       </c>
@@ -17671,7 +17646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>13</v>
       </c>
@@ -17694,7 +17669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>9</v>
       </c>
@@ -17720,7 +17695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>13</v>
       </c>
@@ -17743,7 +17718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>8</v>
       </c>
@@ -17766,7 +17741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>9</v>
       </c>
@@ -17792,7 +17767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>13</v>
       </c>
@@ -17815,7 +17790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>9</v>
       </c>
@@ -17841,7 +17816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>13</v>
       </c>
@@ -17864,7 +17839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>9</v>
       </c>
@@ -17890,7 +17865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>13</v>
       </c>
@@ -17913,7 +17888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>9</v>
       </c>
@@ -17939,7 +17914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>13</v>
       </c>
@@ -17962,7 +17937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>9</v>
       </c>
@@ -17988,7 +17963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="641" spans="1:8">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>13</v>
       </c>
@@ -18011,7 +17986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>9</v>
       </c>
@@ -18037,7 +18012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>13</v>
       </c>
@@ -18060,7 +18035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>9</v>
       </c>
@@ -18086,7 +18061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>13</v>
       </c>
@@ -18109,7 +18084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>9</v>
       </c>
@@ -18135,7 +18110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>13</v>
       </c>
@@ -18158,7 +18133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>9</v>
       </c>
@@ -18184,7 +18159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>13</v>
       </c>
@@ -18207,7 +18182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>9</v>
       </c>
@@ -18233,7 +18208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>13</v>
       </c>
@@ -18256,7 +18231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>8</v>
       </c>
@@ -18279,7 +18254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>8</v>
       </c>
@@ -18302,7 +18277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>9</v>
       </c>
@@ -18328,7 +18303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>13</v>
       </c>
@@ -18351,7 +18326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>9</v>
       </c>
@@ -18377,7 +18352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>13</v>
       </c>
@@ -18400,7 +18375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>8</v>
       </c>
@@ -18423,7 +18398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>9</v>
       </c>
@@ -18449,7 +18424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>13</v>
       </c>
@@ -18472,7 +18447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>9</v>
       </c>
@@ -18498,7 +18473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>13</v>
       </c>
@@ -18521,7 +18496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>9</v>
       </c>
@@ -18547,7 +18522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>13</v>
       </c>
@@ -18570,7 +18545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>9</v>
       </c>
@@ -18596,7 +18571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>13</v>
       </c>
@@ -18619,7 +18594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>9</v>
       </c>
@@ -18645,7 +18620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>13</v>
       </c>
@@ -18668,7 +18643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>9</v>
       </c>
@@ -18694,7 +18669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>13</v>
       </c>
@@ -18717,7 +18692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>9</v>
       </c>
@@ -18743,7 +18718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>13</v>
       </c>
@@ -18766,7 +18741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>9</v>
       </c>
@@ -18792,7 +18767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>13</v>
       </c>
@@ -18815,7 +18790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>8</v>
       </c>
@@ -18838,7 +18813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>8</v>
       </c>
@@ -18861,7 +18836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="677" spans="1:8">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>9</v>
       </c>
@@ -18887,7 +18862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>13</v>
       </c>
@@ -18910,7 +18885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>9</v>
       </c>
@@ -18936,7 +18911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>13</v>
       </c>
@@ -18959,7 +18934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="681" spans="1:8">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>8</v>
       </c>
@@ -18982,7 +18957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>9</v>
       </c>
@@ -19008,7 +18983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>13</v>
       </c>
@@ -19031,7 +19006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>9</v>
       </c>
@@ -19057,7 +19032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>13</v>
       </c>
@@ -19080,7 +19055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>9</v>
       </c>
@@ -19106,7 +19081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>13</v>
       </c>
@@ -19129,7 +19104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>9</v>
       </c>
@@ -19155,7 +19130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>13</v>
       </c>
@@ -19178,7 +19153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>9</v>
       </c>
@@ -19204,7 +19179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>13</v>
       </c>
@@ -19227,7 +19202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>9</v>
       </c>
@@ -19253,7 +19228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>13</v>
       </c>
@@ -19276,7 +19251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>8</v>
       </c>
@@ -19299,7 +19274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>8</v>
       </c>
@@ -19322,7 +19297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>9</v>
       </c>
@@ -19348,7 +19323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>13</v>
       </c>
@@ -19371,7 +19346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>9</v>
       </c>
@@ -19397,7 +19372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>13</v>
       </c>
@@ -19420,7 +19395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>9</v>
       </c>
@@ -19446,7 +19421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>13</v>
       </c>
@@ -19469,7 +19444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>8</v>
       </c>
@@ -19492,7 +19467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>9</v>
       </c>
@@ -19518,7 +19493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>13</v>
       </c>
@@ -19541,7 +19516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>9</v>
       </c>
@@ -19567,7 +19542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>13</v>
       </c>
@@ -19590,7 +19565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>9</v>
       </c>
@@ -19616,7 +19591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>13</v>
       </c>
@@ -19639,7 +19614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>9</v>
       </c>
@@ -19665,7 +19640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>13</v>
       </c>
@@ -19688,7 +19663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>9</v>
       </c>
@@ -19714,7 +19689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>13</v>
       </c>
@@ -19737,7 +19712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>9</v>
       </c>
@@ -19763,7 +19738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="714" spans="1:8">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>13</v>
       </c>
@@ -19786,7 +19761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="715" spans="1:8">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>8</v>
       </c>
@@ -19809,7 +19784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="716" spans="1:8">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>8</v>
       </c>
@@ -19832,7 +19807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>9</v>
       </c>
@@ -19858,7 +19833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="718" spans="1:8">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>13</v>
       </c>
@@ -19881,7 +19856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>8</v>
       </c>
@@ -19904,7 +19879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>9</v>
       </c>
@@ -19930,7 +19905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>13</v>
       </c>
@@ -19960,23 +19935,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013B620F01982514694878B55267266B0" ma:contentTypeVersion="85" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="f20b580f4bc73672f7fc26b54f2fdd7d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xmlns:ns3="c6fe3531-949f-4c96-ac1d-b793c48e3f25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9324efb3ca4fd789e46a4cfe415928a3" ns2:_="" ns3:_="">
     <xsd:import namespace="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
@@ -20197,8 +20155,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C21D0A-65D6-47B6-8E76-5D8CAE45D404}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20206,5 +20181,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C21D0A-65D6-47B6-8E76-5D8CAE45D404}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}"/>
 </file>
--- a/Excel Files/Bus Planning.xlsx
+++ b/Excel Files/Bus Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/872575_fontys_nl/Documents/Documenten/Python/PJ5 Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0399E22E9067360E62355476585DCE3A87431D38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE366500-D517-4BCD-A4AF-9BBB621D2634}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5711B805-1102-4B40-951C-86A7F5A79C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2053,7 +2053,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2355,8 +2355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19935,6 +19935,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013B620F01982514694878B55267266B0" ma:contentTypeVersion="85" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="f20b580f4bc73672f7fc26b54f2fdd7d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xmlns:ns3="c6fe3531-949f-4c96-ac1d-b793c48e3f25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9324efb3ca4fd789e46a4cfe415928a3" ns2:_="" ns3:_="">
     <xsd:import namespace="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
@@ -20155,31 +20172,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C21D0A-65D6-47B6-8E76-5D8CAE45D404}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C58A68F-A5E9-4F6F-AD01-06B5D5C01F66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C58A68F-A5E9-4F6F-AD01-06B5D5C01F66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C21D0A-65D6-47B6-8E76-5D8CAE45D404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
+    <ds:schemaRef ds:uri="c6fe3531-949f-4c96-ac1d-b793c48e3f25"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>